--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Dll4-Notch1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Dll4-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Dll4</t>
   </si>
   <si>
     <t>Notch1</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.6351801355646</v>
+        <v>32.05990033333333</v>
       </c>
       <c r="H2">
-        <v>30.6351801355646</v>
+        <v>96.17970099999999</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.992075962021671</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.992075962021671</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N2">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O2">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P2">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q2">
-        <v>1824.382322600049</v>
+        <v>1928.190747136526</v>
       </c>
       <c r="R2">
-        <v>1824.382322600049</v>
+        <v>17353.71672422874</v>
       </c>
       <c r="S2">
-        <v>0.5442012925791203</v>
+        <v>0.5330863775069697</v>
       </c>
       <c r="T2">
-        <v>0.5442012925791203</v>
+        <v>0.5330863775069696</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.6351801355646</v>
+        <v>32.05990033333333</v>
       </c>
       <c r="H3">
-        <v>30.6351801355646</v>
+        <v>96.17970099999999</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.992075962021671</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.992075962021671</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N3">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O3">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P3">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q3">
-        <v>332.7038960980133</v>
+        <v>354.2642924892249</v>
       </c>
       <c r="R3">
-        <v>332.7038960980133</v>
+        <v>3188.378632403024</v>
       </c>
       <c r="S3">
-        <v>0.09924339216607321</v>
+        <v>0.09794335370792992</v>
       </c>
       <c r="T3">
-        <v>0.09924339216607321</v>
+        <v>0.09794335370792991</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.6351801355646</v>
+        <v>32.05990033333333</v>
       </c>
       <c r="H4">
-        <v>30.6351801355646</v>
+        <v>96.17970099999999</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.992075962021671</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.992075962021671</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N4">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O4">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P4">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q4">
-        <v>368.7306711828397</v>
+        <v>392.8888421346122</v>
       </c>
       <c r="R4">
-        <v>368.7306711828397</v>
+        <v>3535.99957921151</v>
       </c>
       <c r="S4">
-        <v>0.1099899431086839</v>
+        <v>0.1086218725649856</v>
       </c>
       <c r="T4">
-        <v>0.1099899431086839</v>
+        <v>0.1086218725649856</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.6351801355646</v>
+        <v>32.05990033333333</v>
       </c>
       <c r="H5">
-        <v>30.6351801355646</v>
+        <v>96.17970099999999</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.992075962021671</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.992075962021671</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N5">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O5">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P5">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q5">
-        <v>396.1316962343435</v>
+        <v>420.645096253633</v>
       </c>
       <c r="R5">
-        <v>396.1316962343435</v>
+        <v>3785.805866282697</v>
       </c>
       <c r="S5">
-        <v>0.1181634893365215</v>
+        <v>0.1162956366795812</v>
       </c>
       <c r="T5">
-        <v>0.1181634893365215</v>
+        <v>0.1162956366795812</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,991 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>32.05990033333333</v>
+      </c>
+      <c r="H6">
+        <v>96.17970099999999</v>
+      </c>
+      <c r="I6">
+        <v>0.992075962021671</v>
+      </c>
+      <c r="J6">
+        <v>0.992075962021671</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>15.358189</v>
+      </c>
+      <c r="N6">
+        <v>46.074567</v>
+      </c>
+      <c r="O6">
+        <v>0.1372160265679646</v>
+      </c>
+      <c r="P6">
+        <v>0.1372160265679646</v>
+      </c>
+      <c r="Q6">
+        <v>492.3820086404963</v>
+      </c>
+      <c r="R6">
+        <v>4431.438077764466</v>
+      </c>
+      <c r="S6">
+        <v>0.1361287215622047</v>
+      </c>
+      <c r="T6">
+        <v>0.1361287215622047</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.1519353333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.455806</v>
+      </c>
+      <c r="I7">
+        <v>0.004701555226765051</v>
+      </c>
+      <c r="J7">
+        <v>0.004701555226765052</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>60.14337933333334</v>
+      </c>
+      <c r="N7">
+        <v>180.430138</v>
+      </c>
+      <c r="O7">
+        <v>0.5373443142606099</v>
+      </c>
+      <c r="P7">
+        <v>0.5373443142606098</v>
+      </c>
+      <c r="Q7">
+        <v>9.137904386803111</v>
+      </c>
+      <c r="R7">
+        <v>82.241139481228</v>
+      </c>
+      <c r="S7">
+        <v>0.002526353969284452</v>
+      </c>
+      <c r="T7">
+        <v>0.002526353969284452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.1519353333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.455806</v>
+      </c>
+      <c r="I8">
+        <v>0.004701555226765051</v>
+      </c>
+      <c r="J8">
+        <v>0.004701555226765052</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>11.05007466666667</v>
+      </c>
+      <c r="N8">
+        <v>33.150224</v>
+      </c>
+      <c r="O8">
+        <v>0.09872565958390839</v>
+      </c>
+      <c r="P8">
+        <v>0.09872565958390837</v>
+      </c>
+      <c r="Q8">
+        <v>1.678896777838222</v>
+      </c>
+      <c r="R8">
+        <v>15.110071000544</v>
+      </c>
+      <c r="S8">
+        <v>0.0004641641408325516</v>
+      </c>
+      <c r="T8">
+        <v>0.0004641641408325516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1519353333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.455806</v>
+      </c>
+      <c r="I9">
+        <v>0.004701555226765051</v>
+      </c>
+      <c r="J9">
+        <v>0.004701555226765052</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>12.25483666666667</v>
+      </c>
+      <c r="N9">
+        <v>36.76451</v>
+      </c>
+      <c r="O9">
+        <v>0.1094894712937444</v>
+      </c>
+      <c r="P9">
+        <v>0.1094894712937444</v>
+      </c>
+      <c r="Q9">
+        <v>1.861942693895556</v>
+      </c>
+      <c r="R9">
+        <v>16.75748424506</v>
+      </c>
+      <c r="S9">
+        <v>0.0005147707960368459</v>
+      </c>
+      <c r="T9">
+        <v>0.0005147707960368458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>30.6351801355646</v>
-      </c>
-      <c r="H6">
-        <v>30.6351801355646</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>14.0510002072976</v>
-      </c>
-      <c r="N6">
-        <v>14.0510002072976</v>
-      </c>
-      <c r="O6">
-        <v>0.128401882809601</v>
-      </c>
-      <c r="P6">
-        <v>0.128401882809601</v>
-      </c>
-      <c r="Q6">
-        <v>430.4549224354175</v>
-      </c>
-      <c r="R6">
-        <v>430.4549224354175</v>
-      </c>
-      <c r="S6">
-        <v>0.128401882809601</v>
-      </c>
-      <c r="T6">
-        <v>0.128401882809601</v>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1519353333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.455806</v>
+      </c>
+      <c r="I10">
+        <v>0.004701555226765051</v>
+      </c>
+      <c r="J10">
+        <v>0.004701555226765052</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>13.120599</v>
+      </c>
+      <c r="N10">
+        <v>39.361797</v>
+      </c>
+      <c r="O10">
+        <v>0.1172245282937728</v>
+      </c>
+      <c r="P10">
+        <v>0.1172245282937728</v>
+      </c>
+      <c r="Q10">
+        <v>1.993482582598</v>
+      </c>
+      <c r="R10">
+        <v>17.941343243382</v>
+      </c>
+      <c r="S10">
+        <v>0.0005511375937046551</v>
+      </c>
+      <c r="T10">
+        <v>0.0005511375937046551</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1519353333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.455806</v>
+      </c>
+      <c r="I11">
+        <v>0.004701555226765051</v>
+      </c>
+      <c r="J11">
+        <v>0.004701555226765052</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>15.358189</v>
+      </c>
+      <c r="N11">
+        <v>46.074567</v>
+      </c>
+      <c r="O11">
+        <v>0.1372160265679646</v>
+      </c>
+      <c r="P11">
+        <v>0.1372160265679646</v>
+      </c>
+      <c r="Q11">
+        <v>2.333451565111333</v>
+      </c>
+      <c r="R11">
+        <v>21.001064086002</v>
+      </c>
+      <c r="S11">
+        <v>0.0006451287269065463</v>
+      </c>
+      <c r="T11">
+        <v>0.0006451287269065463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.08795966666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.263879</v>
+      </c>
+      <c r="I12">
+        <v>0.00272186344998428</v>
+      </c>
+      <c r="J12">
+        <v>0.00272186344998428</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>60.14337933333334</v>
+      </c>
+      <c r="N12">
+        <v>180.430138</v>
+      </c>
+      <c r="O12">
+        <v>0.5373443142606099</v>
+      </c>
+      <c r="P12">
+        <v>0.5373443142606098</v>
+      </c>
+      <c r="Q12">
+        <v>5.290191598366889</v>
+      </c>
+      <c r="R12">
+        <v>47.611724385302</v>
+      </c>
+      <c r="S12">
+        <v>0.001462577849042821</v>
+      </c>
+      <c r="T12">
+        <v>0.00146257784904282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.08795966666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.263879</v>
+      </c>
+      <c r="I13">
+        <v>0.00272186344998428</v>
+      </c>
+      <c r="J13">
+        <v>0.00272186344998428</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>11.05007466666667</v>
+      </c>
+      <c r="N13">
+        <v>33.150224</v>
+      </c>
+      <c r="O13">
+        <v>0.09872565958390839</v>
+      </c>
+      <c r="P13">
+        <v>0.09872565958390837</v>
+      </c>
+      <c r="Q13">
+        <v>0.9719608843217777</v>
+      </c>
+      <c r="R13">
+        <v>8.747647958896</v>
+      </c>
+      <c r="S13">
+        <v>0.0002687177643970305</v>
+      </c>
+      <c r="T13">
+        <v>0.0002687177643970305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.08795966666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.263879</v>
+      </c>
+      <c r="I14">
+        <v>0.00272186344998428</v>
+      </c>
+      <c r="J14">
+        <v>0.00272186344998428</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>12.25483666666667</v>
+      </c>
+      <c r="N14">
+        <v>36.76451</v>
+      </c>
+      <c r="O14">
+        <v>0.1094894712937444</v>
+      </c>
+      <c r="P14">
+        <v>0.1094894712937444</v>
+      </c>
+      <c r="Q14">
+        <v>1.077931348254444</v>
+      </c>
+      <c r="R14">
+        <v>9.70138213429</v>
+      </c>
+      <c r="S14">
+        <v>0.0002980153900725459</v>
+      </c>
+      <c r="T14">
+        <v>0.0002980153900725458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.08795966666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.263879</v>
+      </c>
+      <c r="I15">
+        <v>0.00272186344998428</v>
+      </c>
+      <c r="J15">
+        <v>0.00272186344998428</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>13.120599</v>
+      </c>
+      <c r="N15">
+        <v>39.361797</v>
+      </c>
+      <c r="O15">
+        <v>0.1172245282937728</v>
+      </c>
+      <c r="P15">
+        <v>0.1172245282937728</v>
+      </c>
+      <c r="Q15">
+        <v>1.154083514507</v>
+      </c>
+      <c r="R15">
+        <v>10.386751630563</v>
+      </c>
+      <c r="S15">
+        <v>0.0003190691590044683</v>
+      </c>
+      <c r="T15">
+        <v>0.0003190691590044682</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.08795966666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.263879</v>
+      </c>
+      <c r="I16">
+        <v>0.00272186344998428</v>
+      </c>
+      <c r="J16">
+        <v>0.00272186344998428</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>15.358189</v>
+      </c>
+      <c r="N16">
+        <v>46.074567</v>
+      </c>
+      <c r="O16">
+        <v>0.1372160265679646</v>
+      </c>
+      <c r="P16">
+        <v>0.1372160265679646</v>
+      </c>
+      <c r="Q16">
+        <v>1.350901185043667</v>
+      </c>
+      <c r="R16">
+        <v>12.158110665393</v>
+      </c>
+      <c r="S16">
+        <v>0.0003734832874674149</v>
+      </c>
+      <c r="T16">
+        <v>0.0003734832874674148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.016178</v>
+      </c>
+      <c r="H17">
+        <v>0.048534</v>
+      </c>
+      <c r="I17">
+        <v>0.0005006193015796523</v>
+      </c>
+      <c r="J17">
+        <v>0.0005006193015796523</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>60.14337933333334</v>
+      </c>
+      <c r="N17">
+        <v>180.430138</v>
+      </c>
+      <c r="O17">
+        <v>0.5373443142606099</v>
+      </c>
+      <c r="P17">
+        <v>0.5373443142606098</v>
+      </c>
+      <c r="Q17">
+        <v>0.9729995908546668</v>
+      </c>
+      <c r="R17">
+        <v>8.756996317692</v>
+      </c>
+      <c r="S17">
+        <v>0.0002690049353129437</v>
+      </c>
+      <c r="T17">
+        <v>0.0002690049353129437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.016178</v>
+      </c>
+      <c r="H18">
+        <v>0.048534</v>
+      </c>
+      <c r="I18">
+        <v>0.0005006193015796523</v>
+      </c>
+      <c r="J18">
+        <v>0.0005006193015796523</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>11.05007466666667</v>
+      </c>
+      <c r="N18">
+        <v>33.150224</v>
+      </c>
+      <c r="O18">
+        <v>0.09872565958390839</v>
+      </c>
+      <c r="P18">
+        <v>0.09872565958390837</v>
+      </c>
+      <c r="Q18">
+        <v>0.1787681079573334</v>
+      </c>
+      <c r="R18">
+        <v>1.608912971616</v>
+      </c>
+      <c r="S18">
+        <v>4.942397074888672E-05</v>
+      </c>
+      <c r="T18">
+        <v>4.942397074888672E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.016178</v>
+      </c>
+      <c r="H19">
+        <v>0.048534</v>
+      </c>
+      <c r="I19">
+        <v>0.0005006193015796523</v>
+      </c>
+      <c r="J19">
+        <v>0.0005006193015796523</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>12.25483666666667</v>
+      </c>
+      <c r="N19">
+        <v>36.76451</v>
+      </c>
+      <c r="O19">
+        <v>0.1094894712937444</v>
+      </c>
+      <c r="P19">
+        <v>0.1094894712937444</v>
+      </c>
+      <c r="Q19">
+        <v>0.1982587475933334</v>
+      </c>
+      <c r="R19">
+        <v>1.78432872834</v>
+      </c>
+      <c r="S19">
+        <v>5.48125426493997E-05</v>
+      </c>
+      <c r="T19">
+        <v>5.481254264939969E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.016178</v>
+      </c>
+      <c r="H20">
+        <v>0.048534</v>
+      </c>
+      <c r="I20">
+        <v>0.0005006193015796523</v>
+      </c>
+      <c r="J20">
+        <v>0.0005006193015796523</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>13.120599</v>
+      </c>
+      <c r="N20">
+        <v>39.361797</v>
+      </c>
+      <c r="O20">
+        <v>0.1172245282937728</v>
+      </c>
+      <c r="P20">
+        <v>0.1172245282937728</v>
+      </c>
+      <c r="Q20">
+        <v>0.212265050622</v>
+      </c>
+      <c r="R20">
+        <v>1.910385455598</v>
+      </c>
+      <c r="S20">
+        <v>5.868486148243274E-05</v>
+      </c>
+      <c r="T20">
+        <v>5.868486148243273E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.016178</v>
+      </c>
+      <c r="H21">
+        <v>0.048534</v>
+      </c>
+      <c r="I21">
+        <v>0.0005006193015796523</v>
+      </c>
+      <c r="J21">
+        <v>0.0005006193015796523</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>15.358189</v>
+      </c>
+      <c r="N21">
+        <v>46.074567</v>
+      </c>
+      <c r="O21">
+        <v>0.1372160265679646</v>
+      </c>
+      <c r="P21">
+        <v>0.1372160265679646</v>
+      </c>
+      <c r="Q21">
+        <v>0.248464781642</v>
+      </c>
+      <c r="R21">
+        <v>2.236183034778</v>
+      </c>
+      <c r="S21">
+        <v>6.869299138598947E-05</v>
+      </c>
+      <c r="T21">
+        <v>6.869299138598945E-05</v>
       </c>
     </row>
   </sheetData>
